--- a/data/Unicrypt/Unicrypt20190101.xlsx
+++ b/data/Unicrypt/Unicrypt20190101.xlsx
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
